--- a/doc/乐盒硬件设备接口极其数量.xlsx
+++ b/doc/乐盒硬件设备接口极其数量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\AD-29乐盒\AD29\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86CD7A4-DA29-4D2C-AB35-794512B911A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E25B0F8-C3C8-490D-90A6-25CF43DDE89E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{027AD5D6-C989-4A4A-A63D-4BCD5ECFDE34}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>乐盒开发板设备接口及数量</t>
   </si>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>屏幕交互输入接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线输入输出接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +658,7 @@
   <dimension ref="D1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,6 +861,15 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D15" s="4" t="s">
